--- a/VereitSuite/VereitApp/testEnvironmentData/databidcreation.xlsx
+++ b/VereitSuite/VereitApp/testEnvironmentData/databidcreation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Bid Name</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Approved</t>
+  </si>
+  <si>
+    <t>1,00,001</t>
   </si>
 </sst>
 </file>
@@ -378,7 +381,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,8 +423,8 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1">
-        <v>10000</v>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>

--- a/VereitSuite/VereitApp/testEnvironmentData/databidcreation.xlsx
+++ b/VereitSuite/VereitApp/testEnvironmentData/databidcreation.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Bid Creation" sheetId="1" r:id="rId1"/>
+    <sheet name="MainteBidCreation" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="15">
   <si>
     <t>Bid Name</t>
   </si>
@@ -399,7 +400,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,7 +443,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>15000</v>
+        <v>100011</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -462,7 +463,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="1">
-        <v>50000</v>
+        <v>200000</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -482,7 +483,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="1">
-        <v>25000</v>
+        <v>150000</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -495,4 +496,99 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1">
+        <v>20000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>